--- a/data/trans_orig/P36B13-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B13-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B18F5919-5EF1-4C2D-9B83-5EA34A104182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E765458C-D5D1-4AA3-B0CC-6E384BE7872A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{892CF870-0037-448B-AF45-8435DB16AE37}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{55D7E4AE-40B7-4400-85DC-B965E3C2916D}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="516">
-  <si>
-    <t>Población según la frecuencia de consumición de comida rápida en 2015 (Tasa respuesta: 99,44%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="518">
+  <si>
+    <t>Población según la frecuencia de consumo de comida rápida en 2015 (Tasa respuesta: 99,44%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -75,1516 +75,1522 @@
     <t>24,46%</t>
   </si>
   <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
   </si>
   <si>
     <t>36,33%</t>
   </si>
   <si>
-    <t>27,71%</t>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>Menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de comida rápida en 2023 (Tasa respuesta: 99,75%)</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
   </si>
   <si>
     <t>45,31%</t>
   </si>
   <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>Menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>63,23%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,01%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
   </si>
   <si>
     <t>0,45%</t>
   </si>
   <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
   </si>
   <si>
     <t>8,96%</t>
   </si>
   <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumición de comida rápida en 2023 (Tasa respuesta: 99,75%)</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
     <t>0,27%</t>
   </si>
   <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
     <t>0,51%</t>
   </si>
   <si>
     <t>1,35%</t>
   </si>
   <si>
-    <t>4,59%</t>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
   </si>
 </sst>
 </file>
@@ -1996,7 +2002,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8B41DA-B9D7-4559-A956-7C034F1A5EA5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53AC5EAF-0CBC-4183-AEE7-8C7EE628263A}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2545,13 +2551,13 @@
         <v>136312</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>275</v>
@@ -2560,13 +2566,13 @@
         <v>279627</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2581,13 +2587,13 @@
         <v>58147</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>44</v>
@@ -2596,13 +2602,13 @@
         <v>43333</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>101</v>
@@ -2611,13 +2617,13 @@
         <v>101480</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2632,13 +2638,13 @@
         <v>3985</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -2647,13 +2653,13 @@
         <v>3475</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>8</v>
@@ -2662,13 +2668,13 @@
         <v>7460</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2724,7 +2730,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2736,13 +2742,13 @@
         <v>274312</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>298</v>
@@ -2751,13 +2757,13 @@
         <v>337607</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>560</v>
@@ -2766,13 +2772,13 @@
         <v>611919</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2787,13 +2793,13 @@
         <v>305167</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>322</v>
@@ -2802,13 +2808,13 @@
         <v>339636</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>121</v>
+        <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>603</v>
@@ -2817,13 +2823,13 @@
         <v>644804</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>39</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2838,13 +2844,13 @@
         <v>310324</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>271</v>
@@ -2853,13 +2859,13 @@
         <v>276214</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>556</v>
@@ -2868,13 +2874,13 @@
         <v>586537</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2889,13 +2895,13 @@
         <v>109580</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>80</v>
@@ -2904,13 +2910,13 @@
         <v>83061</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M19" s="7">
         <v>181</v>
@@ -2919,13 +2925,13 @@
         <v>192641</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2940,13 +2946,13 @@
         <v>18581</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -2955,13 +2961,13 @@
         <v>5053</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M20" s="7">
         <v>23</v>
@@ -2970,10 +2976,10 @@
         <v>23635</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>148</v>
@@ -3050,7 +3056,7 @@
         <v>151</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>190</v>
@@ -3059,28 +3065,28 @@
         <v>214645</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>359</v>
       </c>
       <c r="N22" s="7">
-        <v>396270</v>
+        <v>396271</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>71</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3095,13 +3101,13 @@
         <v>214961</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H23" s="7">
         <v>243</v>
@@ -3110,13 +3116,13 @@
         <v>256894</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="M23" s="7">
         <v>438</v>
@@ -3125,13 +3131,13 @@
         <v>471855</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3146,13 +3152,13 @@
         <v>260866</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H24" s="7">
         <v>248</v>
@@ -3161,13 +3167,13 @@
         <v>255288</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="M24" s="7">
         <v>485</v>
@@ -3176,13 +3182,13 @@
         <v>516154</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3197,13 +3203,13 @@
         <v>92881</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H25" s="7">
         <v>48</v>
@@ -3212,13 +3218,13 @@
         <v>50848</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M25" s="7">
         <v>135</v>
@@ -3227,13 +3233,13 @@
         <v>143729</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3248,13 +3254,13 @@
         <v>6346</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="H26" s="7">
         <v>5</v>
@@ -3263,13 +3269,13 @@
         <v>4744</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="M26" s="7">
         <v>11</v>
@@ -3278,13 +3284,13 @@
         <v>11090</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3326,7 +3332,7 @@
         <v>1428</v>
       </c>
       <c r="N27" s="7">
-        <v>1539099</v>
+        <v>1539100</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -3340,7 +3346,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3352,13 +3358,13 @@
         <v>271242</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="H28" s="7">
         <v>323</v>
@@ -3367,13 +3373,13 @@
         <v>371435</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>195</v>
+        <v>117</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M28" s="7">
         <v>594</v>
@@ -3382,13 +3388,13 @@
         <v>642677</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3403,13 +3409,13 @@
         <v>291047</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>201</v>
+        <v>158</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H29" s="7">
         <v>310</v>
@@ -3418,13 +3424,13 @@
         <v>333547</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M29" s="7">
         <v>597</v>
@@ -3433,13 +3439,13 @@
         <v>624593</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3454,13 +3460,13 @@
         <v>264344</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H30" s="7">
         <v>246</v>
@@ -3469,13 +3475,13 @@
         <v>255754</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M30" s="7">
         <v>508</v>
@@ -3484,13 +3490,13 @@
         <v>520099</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>216</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3505,13 +3511,13 @@
         <v>86940</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H31" s="7">
         <v>60</v>
@@ -3520,13 +3526,13 @@
         <v>59155</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="M31" s="7">
         <v>149</v>
@@ -3574,10 +3580,10 @@
         <v>229</v>
       </c>
       <c r="K32" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="M32" s="7">
         <v>25</v>
@@ -3586,13 +3592,13 @@
         <v>26295</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3660,13 +3666,13 @@
         <v>950074</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="H34" s="7">
         <v>1079</v>
@@ -3675,13 +3681,13 @@
         <v>1209170</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="M34" s="7">
         <v>2000</v>
@@ -3690,13 +3696,13 @@
         <v>2159245</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3711,13 +3717,13 @@
         <v>991874</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="H35" s="7">
         <v>1034</v>
@@ -3726,13 +3732,13 @@
         <v>1084925</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M35" s="7">
         <v>1969</v>
@@ -3792,13 +3798,13 @@
         <v>1963628</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>258</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>259</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3813,13 +3819,13 @@
         <v>372357</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="H37" s="7">
         <v>247</v>
@@ -3828,13 +3834,13 @@
         <v>250515</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="M37" s="7">
         <v>607</v>
@@ -3843,13 +3849,13 @@
         <v>622872</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3864,13 +3870,13 @@
         <v>46579</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="H38" s="7">
         <v>26</v>
@@ -3882,10 +3888,10 @@
         <v>54</v>
       </c>
       <c r="K38" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="M38" s="7">
         <v>71</v>
@@ -3894,13 +3900,13 @@
         <v>72367</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3912,7 +3918,7 @@
         <v>3213</v>
       </c>
       <c r="D39" s="7">
-        <v>3373766</v>
+        <v>3373765</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>60</v>
@@ -3956,7 +3962,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -3977,7 +3983,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3EC4C22-AC0F-427F-8D55-5409ED0E760B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1EF485-1CA3-4E6E-94E2-113BFC6ABBA8}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3994,7 +4000,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4101,13 +4107,13 @@
         <v>33629</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="H4" s="7">
         <v>112</v>
@@ -4116,13 +4122,13 @@
         <v>55990</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>283</v>
+        <v>176</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="M4" s="7">
         <v>159</v>
@@ -4131,13 +4137,13 @@
         <v>89619</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>285</v>
+        <v>33</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4152,13 +4158,13 @@
         <v>40167</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H5" s="7">
         <v>98</v>
@@ -4167,13 +4173,13 @@
         <v>50922</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>203</v>
+        <v>288</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="M5" s="7">
         <v>142</v>
@@ -4182,13 +4188,13 @@
         <v>91089</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4203,13 +4209,13 @@
         <v>23971</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H6" s="7">
         <v>28</v>
@@ -4218,13 +4224,13 @@
         <v>21346</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="M6" s="7">
         <v>51</v>
@@ -4233,13 +4239,13 @@
         <v>45316</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4254,13 +4260,13 @@
         <v>1981</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -4269,13 +4275,13 @@
         <v>1991</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -4287,10 +4293,10 @@
         <v>57</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4305,13 +4311,13 @@
         <v>1326</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -4320,13 +4326,13 @@
         <v>485</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>55</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -4335,13 +4341,13 @@
         <v>1811</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>55</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4409,28 +4415,28 @@
         <v>147370</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>320</v>
+        <v>165</v>
       </c>
       <c r="H10" s="7">
         <v>417</v>
       </c>
       <c r="I10" s="7">
-        <v>210372</v>
+        <v>210373</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="M10" s="7">
         <v>628</v>
@@ -4439,13 +4445,13 @@
         <v>357742</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>112</v>
+        <v>321</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4460,13 +4466,13 @@
         <v>215745</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H11" s="7">
         <v>391</v>
@@ -4475,13 +4481,13 @@
         <v>242548</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="M11" s="7">
         <v>620</v>
@@ -4490,13 +4496,13 @@
         <v>458294</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4511,13 +4517,13 @@
         <v>157552</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="H12" s="7">
         <v>157</v>
@@ -4526,13 +4532,13 @@
         <v>115383</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="M12" s="7">
         <v>303</v>
@@ -4544,10 +4550,10 @@
         <v>34</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>38</v>
+        <v>337</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4562,13 +4568,13 @@
         <v>23253</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -4577,13 +4583,13 @@
         <v>20224</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="M13" s="7">
         <v>45</v>
@@ -4592,13 +4598,13 @@
         <v>43478</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4613,13 +4619,13 @@
         <v>4397</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>351</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -4628,13 +4634,13 @@
         <v>1632</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>352</v>
+        <v>187</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>55</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="M14" s="7">
         <v>5</v>
@@ -4643,13 +4649,13 @@
         <v>6029</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4676,7 +4682,7 @@
         <v>991</v>
       </c>
       <c r="I15" s="7">
-        <v>590159</v>
+        <v>590160</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -4705,7 +4711,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4717,13 +4723,13 @@
         <v>211173</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="H16" s="7">
         <v>507</v>
@@ -4732,13 +4738,13 @@
         <v>305739</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>361</v>
       </c>
       <c r="M16" s="7">
         <v>760</v>
@@ -4747,13 +4753,13 @@
         <v>516912</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4768,13 +4774,13 @@
         <v>407982</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>366</v>
       </c>
       <c r="H17" s="7">
         <v>642</v>
@@ -4783,13 +4789,13 @@
         <v>457327</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>369</v>
       </c>
       <c r="M17" s="7">
         <v>1050</v>
@@ -4798,13 +4804,13 @@
         <v>865309</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4819,13 +4825,13 @@
         <v>295258</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H18" s="7">
         <v>327</v>
@@ -4840,7 +4846,7 @@
         <v>376</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>152</v>
+        <v>377</v>
       </c>
       <c r="M18" s="7">
         <v>575</v>
@@ -4849,13 +4855,13 @@
         <v>555972</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4870,13 +4876,13 @@
         <v>63283</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H19" s="7">
         <v>30</v>
@@ -4885,13 +4891,13 @@
         <v>26755</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M19" s="7">
         <v>76</v>
@@ -4900,13 +4906,13 @@
         <v>90039</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4921,13 +4927,13 @@
         <v>60679</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -4936,13 +4942,13 @@
         <v>7033</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>352</v>
+        <v>393</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="M20" s="7">
         <v>15</v>
@@ -4951,13 +4957,13 @@
         <v>67712</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5025,13 +5031,13 @@
         <v>204375</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="H22" s="7">
         <v>436</v>
@@ -5040,13 +5046,13 @@
         <v>389659</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="M22" s="7">
         <v>658</v>
@@ -5055,13 +5061,13 @@
         <v>594035</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5076,13 +5082,13 @@
         <v>291253</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="H23" s="7">
         <v>392</v>
@@ -5091,13 +5097,13 @@
         <v>280640</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="M23" s="7">
         <v>663</v>
@@ -5106,13 +5112,13 @@
         <v>571893</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5127,13 +5133,13 @@
         <v>178581</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="H24" s="7">
         <v>188</v>
@@ -5142,13 +5148,13 @@
         <v>175455</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="M24" s="7">
         <v>329</v>
@@ -5157,13 +5163,13 @@
         <v>354037</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>158</v>
+        <v>423</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5178,13 +5184,13 @@
         <v>51078</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="H25" s="7">
         <v>27</v>
@@ -5193,13 +5199,13 @@
         <v>27414</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>425</v>
+        <v>141</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="M25" s="7">
         <v>66</v>
@@ -5208,13 +5214,13 @@
         <v>78491</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>178</v>
+        <v>429</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5229,13 +5235,13 @@
         <v>3484</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -5244,13 +5250,13 @@
         <v>479</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>434</v>
+        <v>101</v>
       </c>
       <c r="M26" s="7">
         <v>6</v>
@@ -5259,13 +5265,13 @@
         <v>3964</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>54</v>
+        <v>439</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5321,7 +5327,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5333,13 +5339,13 @@
         <v>277841</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="H28" s="7">
         <v>637</v>
@@ -5348,13 +5354,13 @@
         <v>397638</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="M28" s="7">
         <v>980</v>
@@ -5363,13 +5369,13 @@
         <v>675480</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5384,13 +5390,13 @@
         <v>345161</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>283</v>
+        <v>448</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="H29" s="7">
         <v>554</v>
@@ -5399,13 +5405,13 @@
         <v>400500</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>449</v>
+        <v>197</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="M29" s="7">
         <v>917</v>
@@ -5414,13 +5420,13 @@
         <v>745661</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5435,13 +5441,13 @@
         <v>247972</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="H30" s="7">
         <v>306</v>
@@ -5450,13 +5456,13 @@
         <v>288226</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="M30" s="7">
         <v>531</v>
@@ -5465,13 +5471,13 @@
         <v>536198</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>461</v>
+        <v>157</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5486,7 +5492,7 @@
         <v>76738</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>463</v>
+        <v>184</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>464</v>
@@ -5558,7 +5564,7 @@
         <v>55</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>476</v>
+        <v>393</v>
       </c>
       <c r="M32" s="7">
         <v>14</v>
@@ -5567,13 +5573,13 @@
         <v>17329</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>275</v>
+        <v>476</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>477</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>431</v>
+        <v>478</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5641,10 +5647,10 @@
         <v>874389</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>479</v>
+        <v>379</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>480</v>
@@ -5659,10 +5665,10 @@
         <v>481</v>
       </c>
       <c r="K34" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>482</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>483</v>
       </c>
       <c r="M34" s="7">
         <v>3185</v>
@@ -5671,7 +5677,7 @@
         <v>2233788</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>154</v>
+        <v>483</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>484</v>
@@ -5713,7 +5719,7 @@
         <v>490</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>447</v>
+        <v>491</v>
       </c>
       <c r="M35" s="7">
         <v>3392</v>
@@ -5722,13 +5728,13 @@
         <v>2732246</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5743,13 +5749,13 @@
         <v>903335</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>496</v>
+        <v>417</v>
       </c>
       <c r="H36" s="7">
         <v>1006</v>
@@ -5773,13 +5779,13 @@
         <v>1764458</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>501</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5794,13 +5800,13 @@
         <v>216333</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>503</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>505</v>
       </c>
       <c r="H37" s="7">
         <v>144</v>
@@ -5809,13 +5815,13 @@
         <v>134902</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>506</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="M37" s="7">
         <v>313</v>
@@ -5824,10 +5830,10 @@
         <v>351235</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>508</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>509</v>
@@ -5860,13 +5866,13 @@
         <v>10296</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>476</v>
+        <v>513</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>102</v>
+        <v>433</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="M38" s="7">
         <v>42</v>
@@ -5875,13 +5881,13 @@
         <v>96845</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>310</v>
+        <v>516</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5923,7 +5929,7 @@
         <v>8721</v>
       </c>
       <c r="N39" s="7">
-        <v>7178572</v>
+        <v>7178571</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>60</v>
@@ -5937,7 +5943,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B13-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B13-Habitat-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E765458C-D5D1-4AA3-B0CC-6E384BE7872A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{240A1422-9DF0-42FC-82AB-0FD07E387C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{55D7E4AE-40B7-4400-85DC-B965E3C2916D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2D6C4630-3DE9-4149-92D2-5C780A48ED7B}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
     <sheet name="2023" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="518">
-  <si>
-    <t>Población según la frecuencia de consumo de comida rápida en 2015 (Tasa respuesta: 99,44%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="512">
+  <si>
+    <t>Población según la frecuencia de consumo de comida rápida en 2016 (Tasa respuesta: 99,44%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Nunca o casi nunca</t>
@@ -75,1362 +75,1356 @@
     <t>24,46%</t>
   </si>
   <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
   </si>
   <si>
     <t>36,33%</t>
   </si>
   <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
   </si>
   <si>
     <t>30,38%</t>
   </si>
   <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>Menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
     <t>24,68%</t>
   </si>
   <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>Menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de comida rápida en 2023 (Tasa respuesta: 99,75%)</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
   </si>
   <si>
     <t>38,66%</t>
   </si>
   <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>63,23%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,01%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
   </si>
   <si>
     <t>23,4%</t>
   </si>
   <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
+    <t>27,86%</t>
   </si>
   <si>
     <t>7,96%</t>
   </si>
   <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de comida rápida en 2023 (Tasa respuesta: 99,75%)</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>43,96%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>63,23%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,01%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
     <t>6,1%</t>
   </si>
   <si>
@@ -1452,9 +1446,6 @@
     <t>5,2%</t>
   </si>
   <si>
-    <t>7,89%</t>
-  </si>
-  <si>
     <t>1,73%</t>
   </si>
   <si>
@@ -1518,9 +1509,6 @@
     <t>38,06%</t>
   </si>
   <si>
-    <t>35,93%</t>
-  </si>
-  <si>
     <t>39,45%</t>
   </si>
   <si>
@@ -1569,16 +1557,10 @@
     <t>5,6%</t>
   </si>
   <si>
-    <t>2,56%</t>
-  </si>
-  <si>
     <t>0,9%</t>
   </si>
   <si>
     <t>8,96%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
   </si>
   <si>
     <t>0,51%</t>
@@ -2002,7 +1984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53AC5EAF-0CBC-4183-AEE7-8C7EE628263A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9246884-F16A-4A49-9F28-5F8A1CA4153D}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2551,13 +2533,13 @@
         <v>136312</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>275</v>
@@ -2566,13 +2548,13 @@
         <v>279627</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2587,13 +2569,13 @@
         <v>58147</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>44</v>
@@ -2602,13 +2584,13 @@
         <v>43333</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>101</v>
@@ -2617,13 +2599,13 @@
         <v>101480</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2638,13 +2620,13 @@
         <v>3985</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -2653,13 +2635,13 @@
         <v>3475</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>8</v>
@@ -2668,13 +2650,13 @@
         <v>7460</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2730,7 +2712,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2742,13 +2724,13 @@
         <v>274312</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>298</v>
@@ -2757,10 +2739,10 @@
         <v>337607</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>112</v>
@@ -2793,13 +2775,13 @@
         <v>305167</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>322</v>
@@ -2808,13 +2790,13 @@
         <v>339636</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>31</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>603</v>
@@ -2823,13 +2805,13 @@
         <v>644804</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2844,13 +2826,13 @@
         <v>310324</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>271</v>
@@ -2859,13 +2841,13 @@
         <v>276214</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M18" s="7">
         <v>556</v>
@@ -2874,13 +2856,13 @@
         <v>586537</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2895,13 +2877,13 @@
         <v>109580</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H19" s="7">
         <v>80</v>
@@ -2910,13 +2892,13 @@
         <v>83061</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>181</v>
@@ -2925,13 +2907,13 @@
         <v>192641</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2946,13 +2928,13 @@
         <v>18581</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -2961,13 +2943,13 @@
         <v>5053</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M20" s="7">
         <v>23</v>
@@ -2976,13 +2958,13 @@
         <v>23635</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3038,7 +3020,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3050,13 +3032,13 @@
         <v>181625</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>190</v>
@@ -3065,28 +3047,28 @@
         <v>214645</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>359</v>
       </c>
       <c r="N22" s="7">
-        <v>396271</v>
+        <v>396270</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3101,13 +3083,13 @@
         <v>214961</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H23" s="7">
         <v>243</v>
@@ -3116,13 +3098,13 @@
         <v>256894</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M23" s="7">
         <v>438</v>
@@ -3131,13 +3113,13 @@
         <v>471855</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3152,13 +3134,13 @@
         <v>260866</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H24" s="7">
         <v>248</v>
@@ -3167,13 +3149,13 @@
         <v>255288</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M24" s="7">
         <v>485</v>
@@ -3182,13 +3164,13 @@
         <v>516154</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3203,13 +3185,13 @@
         <v>92881</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H25" s="7">
         <v>48</v>
@@ -3218,13 +3200,13 @@
         <v>50848</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M25" s="7">
         <v>135</v>
@@ -3233,13 +3215,13 @@
         <v>143729</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3254,13 +3236,13 @@
         <v>6346</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H26" s="7">
         <v>5</v>
@@ -3269,13 +3251,13 @@
         <v>4744</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M26" s="7">
         <v>11</v>
@@ -3284,13 +3266,13 @@
         <v>11090</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3332,7 +3314,7 @@
         <v>1428</v>
       </c>
       <c r="N27" s="7">
-        <v>1539100</v>
+        <v>1539099</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -3346,7 +3328,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3358,13 +3340,13 @@
         <v>271242</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H28" s="7">
         <v>323</v>
@@ -3373,13 +3355,13 @@
         <v>371435</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M28" s="7">
         <v>594</v>
@@ -3388,13 +3370,13 @@
         <v>642677</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3409,10 +3391,10 @@
         <v>291047</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>204</v>
@@ -3460,7 +3442,7 @@
         <v>264344</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>211</v>
@@ -3496,7 +3478,7 @@
         <v>217</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>129</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3511,13 +3493,13 @@
         <v>86940</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H31" s="7">
         <v>60</v>
@@ -3526,13 +3508,13 @@
         <v>59155</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="M31" s="7">
         <v>149</v>
@@ -3541,13 +3523,13 @@
         <v>146095</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3562,13 +3544,13 @@
         <v>14612</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H32" s="7">
         <v>11</v>
@@ -3577,13 +3559,13 @@
         <v>11683</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>189</v>
+        <v>231</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M32" s="7">
         <v>25</v>
@@ -3592,13 +3574,13 @@
         <v>26295</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3666,13 +3648,13 @@
         <v>950074</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>234</v>
+        <v>157</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H34" s="7">
         <v>1079</v>
@@ -3681,10 +3663,10 @@
         <v>1209170</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>238</v>
+        <v>39</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>239</v>
@@ -3702,7 +3684,7 @@
         <v>241</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>242</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3717,13 +3699,13 @@
         <v>991874</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="H35" s="7">
         <v>1034</v>
@@ -3732,13 +3714,13 @@
         <v>1084925</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="M35" s="7">
         <v>1969</v>
@@ -3747,13 +3729,13 @@
         <v>2076800</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3768,13 +3750,13 @@
         <v>1012881</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="H36" s="7">
         <v>933</v>
@@ -3783,13 +3765,13 @@
         <v>950747</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="K36" s="7" t="s">
-        <v>256</v>
-      </c>
       <c r="L36" s="7" t="s">
-        <v>257</v>
+        <v>203</v>
       </c>
       <c r="M36" s="7">
         <v>1885</v>
@@ -3798,13 +3780,13 @@
         <v>1963628</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>29</v>
+        <v>257</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3819,13 +3801,13 @@
         <v>372357</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="H37" s="7">
         <v>247</v>
@@ -3834,13 +3816,13 @@
         <v>250515</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="M37" s="7">
         <v>607</v>
@@ -3849,13 +3831,13 @@
         <v>622872</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3870,13 +3852,13 @@
         <v>46579</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="H38" s="7">
         <v>26</v>
@@ -3888,10 +3870,10 @@
         <v>54</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>271</v>
+        <v>145</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M38" s="7">
         <v>71</v>
@@ -3900,13 +3882,13 @@
         <v>72367</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3918,7 +3900,7 @@
         <v>3213</v>
       </c>
       <c r="D39" s="7">
-        <v>3373765</v>
+        <v>3373766</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>60</v>
@@ -3962,7 +3944,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -3983,7 +3965,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1EF485-1CA3-4E6E-94E2-113BFC6ABBA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B337B64-6A40-4791-B182-2EBCEE71FDFD}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4000,7 +3982,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4107,13 +4089,13 @@
         <v>33629</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="H4" s="7">
         <v>112</v>
@@ -4122,13 +4104,13 @@
         <v>55990</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="M4" s="7">
         <v>159</v>
@@ -4137,7 +4119,7 @@
         <v>89619</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>33</v>
+        <v>281</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>282</v>
@@ -4421,7 +4403,7 @@
         <v>316</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H10" s="7">
         <v>417</v>
@@ -4634,7 +4616,7 @@
         <v>1632</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>55</v>
@@ -4711,7 +4693,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4741,7 +4723,7 @@
         <v>358</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>359</v>
@@ -4831,7 +4813,7 @@
         <v>373</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>374</v>
+        <v>36</v>
       </c>
       <c r="H18" s="7">
         <v>327</v>
@@ -4840,13 +4822,13 @@
         <v>260714</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>377</v>
       </c>
       <c r="M18" s="7">
         <v>575</v>
@@ -4855,13 +4837,13 @@
         <v>555972</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4876,13 +4858,13 @@
         <v>63283</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>383</v>
       </c>
       <c r="H19" s="7">
         <v>30</v>
@@ -4891,13 +4873,13 @@
         <v>26755</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>386</v>
       </c>
       <c r="M19" s="7">
         <v>76</v>
@@ -4906,13 +4888,13 @@
         <v>90039</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4927,13 +4909,13 @@
         <v>60679</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>392</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -4942,13 +4924,13 @@
         <v>7033</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>394</v>
       </c>
       <c r="M20" s="7">
         <v>15</v>
@@ -4957,13 +4939,13 @@
         <v>67712</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5019,7 +5001,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5031,13 +5013,13 @@
         <v>204375</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>399</v>
       </c>
       <c r="H22" s="7">
         <v>436</v>
@@ -5046,13 +5028,13 @@
         <v>389659</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>402</v>
       </c>
       <c r="M22" s="7">
         <v>658</v>
@@ -5061,13 +5043,13 @@
         <v>594035</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5082,13 +5064,13 @@
         <v>291253</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="H23" s="7">
         <v>392</v>
@@ -5097,13 +5079,13 @@
         <v>280640</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>411</v>
       </c>
       <c r="M23" s="7">
         <v>663</v>
@@ -5112,13 +5094,13 @@
         <v>571893</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5133,13 +5115,13 @@
         <v>178581</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>417</v>
       </c>
       <c r="H24" s="7">
         <v>188</v>
@@ -5148,13 +5130,13 @@
         <v>175455</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>420</v>
       </c>
       <c r="M24" s="7">
         <v>329</v>
@@ -5163,13 +5145,13 @@
         <v>354037</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5184,13 +5166,13 @@
         <v>51078</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>426</v>
       </c>
       <c r="H25" s="7">
         <v>27</v>
@@ -5199,13 +5181,13 @@
         <v>27414</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>428</v>
       </c>
       <c r="M25" s="7">
         <v>66</v>
@@ -5214,13 +5196,13 @@
         <v>78491</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>430</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5235,13 +5217,13 @@
         <v>3484</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>433</v>
-      </c>
       <c r="G26" s="7" t="s">
-        <v>434</v>
+        <v>103</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -5250,13 +5232,13 @@
         <v>479</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M26" s="7">
         <v>6</v>
@@ -5265,13 +5247,13 @@
         <v>3964</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5327,7 +5309,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5339,13 +5321,13 @@
         <v>277841</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>441</v>
+        <v>76</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H28" s="7">
         <v>637</v>
@@ -5354,13 +5336,13 @@
         <v>397638</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="M28" s="7">
         <v>980</v>
@@ -5369,13 +5351,13 @@
         <v>675480</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5390,13 +5372,13 @@
         <v>345161</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="H29" s="7">
         <v>554</v>
@@ -5405,13 +5387,13 @@
         <v>400500</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>197</v>
+        <v>449</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="M29" s="7">
         <v>917</v>
@@ -5420,13 +5402,13 @@
         <v>745661</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>453</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5441,13 +5423,13 @@
         <v>247972</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>457</v>
+        <v>78</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="H30" s="7">
         <v>306</v>
@@ -5456,13 +5438,13 @@
         <v>288226</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>461</v>
+        <v>129</v>
       </c>
       <c r="M30" s="7">
         <v>531</v>
@@ -5471,13 +5453,13 @@
         <v>536198</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>157</v>
+        <v>459</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5492,13 +5474,13 @@
         <v>76738</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>184</v>
+        <v>461</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="H31" s="7">
         <v>59</v>
@@ -5507,13 +5489,13 @@
         <v>58518</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>466</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>468</v>
       </c>
       <c r="M31" s="7">
         <v>120</v>
@@ -5522,13 +5504,13 @@
         <v>135256</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>471</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5543,13 +5525,13 @@
         <v>16663</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -5558,13 +5540,13 @@
         <v>666</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>55</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="M32" s="7">
         <v>14</v>
@@ -5573,13 +5555,13 @@
         <v>17329</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5647,13 +5629,13 @@
         <v>874389</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="H34" s="7">
         <v>2109</v>
@@ -5662,13 +5644,13 @@
         <v>1359399</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="M34" s="7">
         <v>3185</v>
@@ -5677,13 +5659,13 @@
         <v>2233788</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5698,13 +5680,13 @@
         <v>1300309</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H35" s="7">
         <v>2077</v>
@@ -5713,13 +5695,13 @@
         <v>1431937</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="M35" s="7">
         <v>3392</v>
@@ -5728,13 +5710,13 @@
         <v>2732246</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>493</v>
+        <v>175</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5749,13 +5731,13 @@
         <v>903335</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H36" s="7">
         <v>1006</v>
@@ -5764,13 +5746,13 @@
         <v>861123</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="M36" s="7">
         <v>1789</v>
@@ -5779,13 +5761,13 @@
         <v>1764458</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>278</v>
+        <v>217</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5800,13 +5782,13 @@
         <v>216333</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="H37" s="7">
         <v>144</v>
@@ -5815,13 +5797,13 @@
         <v>134902</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="M37" s="7">
         <v>313</v>
@@ -5830,13 +5812,13 @@
         <v>351235</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5851,13 +5833,13 @@
         <v>86549</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>510</v>
+        <v>229</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="H38" s="7">
         <v>14</v>
@@ -5866,13 +5848,13 @@
         <v>10296</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>513</v>
+        <v>105</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="M38" s="7">
         <v>42</v>
@@ -5881,13 +5863,13 @@
         <v>96845</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5943,7 +5925,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B13-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B13-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{240A1422-9DF0-42FC-82AB-0FD07E387C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{73DBEA09-C52A-4633-9809-37B6F9446D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2D6C4630-3DE9-4149-92D2-5C780A48ED7B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{14E09CF7-912B-4B75-9583-F74DC4491CBE}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="516">
   <si>
     <t>Población según la frecuencia de consumo de comida rápida en 2016 (Tasa respuesta: 99,44%)</t>
   </si>
@@ -75,1492 +75,1507 @@
     <t>24,46%</t>
   </si>
   <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
   </si>
   <si>
     <t>36,33%</t>
   </si>
   <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>Menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
     <t>28,15%</t>
   </si>
   <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>Menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de comida rápida en 2023 (Tasa respuesta: 99,75%)</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
   </si>
   <si>
     <t>30,5%</t>
   </si>
   <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
   </si>
   <si>
     <t>4,88%</t>
   </si>
   <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
   </si>
   <si>
     <t>0,16%</t>
   </si>
   <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
   </si>
   <si>
     <t>0,27%</t>
   </si>
   <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
   </si>
   <si>
     <t>24,58%</t>
   </si>
   <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
   </si>
   <si>
     <t>2,56%</t>
   </si>
   <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de comida rápida en 2023 (Tasa respuesta: 99,75%)</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>43,96%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>63,23%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,01%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
   </si>
   <si>
     <t>0,51%</t>
@@ -1569,10 +1584,7 @@
     <t>1,35%</t>
   </si>
   <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
+    <t>4,59%</t>
   </si>
 </sst>
 </file>
@@ -1984,7 +1996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9246884-F16A-4A49-9F28-5F8A1CA4153D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50DAB70-B0D9-400D-94AA-60C23C9CACFC}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2742,10 +2754,10 @@
         <v>111</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>560</v>
@@ -2754,13 +2766,13 @@
         <v>611919</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2775,13 +2787,13 @@
         <v>305167</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>322</v>
@@ -2790,13 +2802,13 @@
         <v>339636</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>603</v>
@@ -2805,13 +2817,13 @@
         <v>644804</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>124</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2844,10 +2856,10 @@
         <v>128</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>556</v>
@@ -2856,13 +2868,13 @@
         <v>586537</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2877,13 +2889,13 @@
         <v>109580</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>80</v>
@@ -2892,13 +2904,13 @@
         <v>83061</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M19" s="7">
         <v>181</v>
@@ -2907,10 +2919,10 @@
         <v>192641</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>141</v>
@@ -2958,13 +2970,13 @@
         <v>23635</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3020,7 +3032,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3032,13 +3044,13 @@
         <v>181625</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="H22" s="7">
         <v>190</v>
@@ -3068,7 +3080,7 @@
         <v>156</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3083,13 +3095,13 @@
         <v>214961</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H23" s="7">
         <v>243</v>
@@ -3098,13 +3110,13 @@
         <v>256894</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="K23" s="7" t="s">
-        <v>162</v>
-      </c>
       <c r="L23" s="7" t="s">
-        <v>163</v>
+        <v>14</v>
       </c>
       <c r="M23" s="7">
         <v>438</v>
@@ -3113,13 +3125,13 @@
         <v>471855</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3134,13 +3146,13 @@
         <v>260866</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H24" s="7">
         <v>248</v>
@@ -3149,13 +3161,13 @@
         <v>255288</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M24" s="7">
         <v>485</v>
@@ -3164,13 +3176,13 @@
         <v>516154</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3185,13 +3197,13 @@
         <v>92881</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H25" s="7">
         <v>48</v>
@@ -3200,13 +3212,13 @@
         <v>50848</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M25" s="7">
         <v>135</v>
@@ -3215,13 +3227,13 @@
         <v>143729</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3236,13 +3248,13 @@
         <v>6346</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>187</v>
+        <v>142</v>
       </c>
       <c r="H26" s="7">
         <v>5</v>
@@ -3251,13 +3263,13 @@
         <v>4744</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>52</v>
+        <v>185</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M26" s="7">
         <v>11</v>
@@ -3269,10 +3281,10 @@
         <v>98</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3328,7 +3340,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3340,13 +3352,13 @@
         <v>271242</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="H28" s="7">
         <v>323</v>
@@ -3355,13 +3367,13 @@
         <v>371435</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="M28" s="7">
         <v>594</v>
@@ -3370,13 +3382,13 @@
         <v>642677</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3391,13 +3403,13 @@
         <v>291047</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="H29" s="7">
         <v>310</v>
@@ -3406,13 +3418,13 @@
         <v>333547</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="M29" s="7">
         <v>597</v>
@@ -3421,13 +3433,13 @@
         <v>624593</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3442,13 +3454,13 @@
         <v>264344</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H30" s="7">
         <v>246</v>
@@ -3457,13 +3469,13 @@
         <v>255754</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M30" s="7">
         <v>508</v>
@@ -3472,13 +3484,13 @@
         <v>520099</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3493,13 +3505,13 @@
         <v>86940</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H31" s="7">
         <v>60</v>
@@ -3508,13 +3520,13 @@
         <v>59155</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M31" s="7">
         <v>149</v>
@@ -3523,13 +3535,13 @@
         <v>146095</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3544,13 +3556,13 @@
         <v>14612</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="H32" s="7">
         <v>11</v>
@@ -3559,13 +3571,13 @@
         <v>11683</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="M32" s="7">
         <v>25</v>
@@ -3574,13 +3586,13 @@
         <v>26295</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3648,7 +3660,7 @@
         <v>950074</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>157</v>
+        <v>235</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>236</v>
@@ -3666,10 +3678,10 @@
         <v>238</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>39</v>
+        <v>239</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M34" s="7">
         <v>2000</v>
@@ -3678,13 +3690,13 @@
         <v>2159245</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>195</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3699,13 +3711,13 @@
         <v>991874</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H35" s="7">
         <v>1034</v>
@@ -3714,13 +3726,13 @@
         <v>1084925</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>247</v>
+        <v>203</v>
       </c>
       <c r="M35" s="7">
         <v>1969</v>
@@ -3729,13 +3741,13 @@
         <v>2076800</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3750,13 +3762,13 @@
         <v>1012881</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H36" s="7">
         <v>933</v>
@@ -3765,13 +3777,13 @@
         <v>950747</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>203</v>
+        <v>257</v>
       </c>
       <c r="M36" s="7">
         <v>1885</v>
@@ -3780,13 +3792,13 @@
         <v>1963628</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3801,13 +3813,13 @@
         <v>372357</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H37" s="7">
         <v>247</v>
@@ -3816,13 +3828,13 @@
         <v>250515</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M37" s="7">
         <v>607</v>
@@ -3831,13 +3843,13 @@
         <v>622872</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3852,13 +3864,13 @@
         <v>46579</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H38" s="7">
         <v>26</v>
@@ -3870,10 +3882,10 @@
         <v>54</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>145</v>
+        <v>272</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="M38" s="7">
         <v>71</v>
@@ -3882,13 +3894,13 @@
         <v>72367</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3944,7 +3956,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -3965,7 +3977,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B337B64-6A40-4791-B182-2EBCEE71FDFD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06B8E198-8D63-4A49-AAB7-270D8109B3B9}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3982,7 +3994,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4089,13 +4101,13 @@
         <v>33629</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>217</v>
+        <v>280</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="H4" s="7">
         <v>112</v>
@@ -4104,13 +4116,13 @@
         <v>55990</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="M4" s="7">
         <v>159</v>
@@ -4119,13 +4131,13 @@
         <v>89619</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4140,13 +4152,13 @@
         <v>40167</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="H5" s="7">
         <v>98</v>
@@ -4155,13 +4167,13 @@
         <v>50922</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>288</v>
+        <v>203</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="M5" s="7">
         <v>142</v>
@@ -4170,13 +4182,13 @@
         <v>91089</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4191,13 +4203,13 @@
         <v>23971</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="H6" s="7">
         <v>28</v>
@@ -4206,13 +4218,13 @@
         <v>21346</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="M6" s="7">
         <v>51</v>
@@ -4221,13 +4233,13 @@
         <v>45316</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4242,13 +4254,13 @@
         <v>1981</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -4257,13 +4269,13 @@
         <v>1991</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -4275,10 +4287,10 @@
         <v>57</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4293,13 +4305,13 @@
         <v>1326</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -4308,13 +4320,13 @@
         <v>485</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>55</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -4323,13 +4335,13 @@
         <v>1811</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>55</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4397,28 +4409,28 @@
         <v>147370</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>164</v>
+        <v>320</v>
       </c>
       <c r="H10" s="7">
         <v>417</v>
       </c>
       <c r="I10" s="7">
-        <v>210373</v>
+        <v>210372</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="M10" s="7">
         <v>628</v>
@@ -4427,13 +4439,13 @@
         <v>357742</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>321</v>
+        <v>112</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4448,13 +4460,13 @@
         <v>215745</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="H11" s="7">
         <v>391</v>
@@ -4463,13 +4475,13 @@
         <v>242548</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="M11" s="7">
         <v>620</v>
@@ -4478,13 +4490,13 @@
         <v>458294</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4499,13 +4511,13 @@
         <v>157552</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="H12" s="7">
         <v>157</v>
@@ -4514,13 +4526,13 @@
         <v>115383</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="M12" s="7">
         <v>303</v>
@@ -4532,10 +4544,10 @@
         <v>34</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>337</v>
+        <v>38</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4550,13 +4562,13 @@
         <v>23253</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>341</v>
+        <v>53</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -4565,13 +4577,13 @@
         <v>20224</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M13" s="7">
         <v>45</v>
@@ -4580,13 +4592,13 @@
         <v>43478</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4601,13 +4613,13 @@
         <v>4397</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -4616,13 +4628,13 @@
         <v>1632</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>186</v>
+        <v>352</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>55</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="M14" s="7">
         <v>5</v>
@@ -4631,13 +4643,13 @@
         <v>6029</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>354</v>
+        <v>312</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4664,7 +4676,7 @@
         <v>991</v>
       </c>
       <c r="I15" s="7">
-        <v>590160</v>
+        <v>590159</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -4705,13 +4717,13 @@
         <v>211173</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H16" s="7">
         <v>507</v>
@@ -4720,13 +4732,13 @@
         <v>305739</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>128</v>
+        <v>360</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="M16" s="7">
         <v>760</v>
@@ -4735,13 +4747,13 @@
         <v>516912</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4756,13 +4768,13 @@
         <v>407982</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>364</v>
+        <v>111</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H17" s="7">
         <v>642</v>
@@ -4771,13 +4783,13 @@
         <v>457327</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M17" s="7">
         <v>1050</v>
@@ -4786,13 +4798,13 @@
         <v>865309</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4807,13 +4819,13 @@
         <v>295258</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="H18" s="7">
         <v>327</v>
@@ -4822,13 +4834,13 @@
         <v>260714</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>376</v>
+        <v>152</v>
       </c>
       <c r="M18" s="7">
         <v>575</v>
@@ -4927,10 +4939,10 @@
         <v>104</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>393</v>
       </c>
       <c r="M20" s="7">
         <v>15</v>
@@ -4939,13 +4951,13 @@
         <v>67712</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5001,7 +5013,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5013,13 +5025,13 @@
         <v>204375</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>398</v>
       </c>
       <c r="H22" s="7">
         <v>436</v>
@@ -5028,13 +5040,13 @@
         <v>389659</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>401</v>
       </c>
       <c r="M22" s="7">
         <v>658</v>
@@ -5043,13 +5055,13 @@
         <v>594035</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5064,13 +5076,13 @@
         <v>291253</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>407</v>
       </c>
       <c r="H23" s="7">
         <v>392</v>
@@ -5079,13 +5091,13 @@
         <v>280640</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>410</v>
       </c>
       <c r="M23" s="7">
         <v>663</v>
@@ -5094,13 +5106,13 @@
         <v>571893</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5115,13 +5127,13 @@
         <v>178581</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>416</v>
       </c>
       <c r="H24" s="7">
         <v>188</v>
@@ -5130,13 +5142,13 @@
         <v>175455</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>419</v>
       </c>
       <c r="M24" s="7">
         <v>329</v>
@@ -5145,13 +5157,13 @@
         <v>354037</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="P24" s="7" t="s">
-        <v>421</v>
-      </c>
       <c r="Q24" s="7" t="s">
-        <v>422</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5166,13 +5178,13 @@
         <v>51078</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>425</v>
       </c>
       <c r="H25" s="7">
         <v>27</v>
@@ -5181,13 +5193,13 @@
         <v>27414</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>427</v>
       </c>
       <c r="M25" s="7">
         <v>66</v>
@@ -5196,13 +5208,13 @@
         <v>78491</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5217,13 +5229,13 @@
         <v>3484</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -5232,13 +5244,13 @@
         <v>479</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M26" s="7">
         <v>6</v>
@@ -5253,7 +5265,7 @@
         <v>436</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>437</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5309,7 +5321,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5321,10 +5333,10 @@
         <v>277841</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>439</v>
@@ -5351,13 +5363,13 @@
         <v>675480</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5372,7 +5384,7 @@
         <v>345161</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>445</v>
+        <v>283</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>446</v>
@@ -5426,10 +5438,10 @@
         <v>454</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>78</v>
+        <v>455</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H30" s="7">
         <v>306</v>
@@ -5438,13 +5450,13 @@
         <v>288226</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>129</v>
+        <v>459</v>
       </c>
       <c r="M30" s="7">
         <v>531</v>
@@ -5453,13 +5465,13 @@
         <v>536198</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5474,13 +5486,13 @@
         <v>76738</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="H31" s="7">
         <v>59</v>
@@ -5489,13 +5501,13 @@
         <v>58518</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="M31" s="7">
         <v>120</v>
@@ -5504,13 +5516,13 @@
         <v>135256</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>183</v>
+        <v>471</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5525,13 +5537,13 @@
         <v>16663</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -5540,13 +5552,13 @@
         <v>666</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>55</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>392</v>
+        <v>476</v>
       </c>
       <c r="M32" s="7">
         <v>14</v>
@@ -5555,13 +5567,13 @@
         <v>17329</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>473</v>
+        <v>275</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>475</v>
+        <v>431</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5629,13 +5641,13 @@
         <v>874389</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>378</v>
+        <v>479</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="H34" s="7">
         <v>2109</v>
@@ -5644,13 +5656,13 @@
         <v>1359399</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>276</v>
+        <v>482</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="M34" s="7">
         <v>3185</v>
@@ -5659,13 +5671,13 @@
         <v>2233788</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>480</v>
+        <v>154</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5680,13 +5692,13 @@
         <v>1300309</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="H35" s="7">
         <v>2077</v>
@@ -5695,13 +5707,13 @@
         <v>1431937</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>488</v>
+        <v>447</v>
       </c>
       <c r="M35" s="7">
         <v>3392</v>
@@ -5710,13 +5722,13 @@
         <v>2732246</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>175</v>
+        <v>492</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5731,13 +5743,13 @@
         <v>903335</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>416</v>
+        <v>496</v>
       </c>
       <c r="H36" s="7">
         <v>1006</v>
@@ -5746,13 +5758,13 @@
         <v>861123</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="M36" s="7">
         <v>1789</v>
@@ -5761,13 +5773,13 @@
         <v>1764458</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>217</v>
+        <v>500</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5782,13 +5794,13 @@
         <v>216333</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>388</v>
+        <v>504</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="H37" s="7">
         <v>144</v>
@@ -5797,13 +5809,13 @@
         <v>134902</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>502</v>
+        <v>381</v>
       </c>
       <c r="M37" s="7">
         <v>313</v>
@@ -5812,13 +5824,13 @@
         <v>351235</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>504</v>
+        <v>381</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5833,13 +5845,13 @@
         <v>86549</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>229</v>
+        <v>510</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="H38" s="7">
         <v>14</v>
@@ -5848,13 +5860,13 @@
         <v>10296</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>105</v>
+        <v>476</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>432</v>
+        <v>102</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="M38" s="7">
         <v>42</v>
@@ -5863,13 +5875,13 @@
         <v>96845</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>510</v>
+        <v>310</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5911,7 +5923,7 @@
         <v>8721</v>
       </c>
       <c r="N39" s="7">
-        <v>7178571</v>
+        <v>7178572</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>60</v>
@@ -5925,7 +5937,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B13-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B13-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73DBEA09-C52A-4633-9809-37B6F9446D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B7EE52C-7367-4732-A316-E1F882D76955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{14E09CF7-912B-4B75-9583-F74DC4491CBE}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F2811996-EE2F-4D6E-BF01-DC4B47F83DDC}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="442">
   <si>
     <t>Población según la frecuencia de consumo de comida rápida en 2016 (Tasa respuesta: 99,44%)</t>
   </si>
@@ -66,1525 +66,1303 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Nunca o casi nunca</t>
   </si>
   <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>Menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
   </si>
   <si>
     <t>36,33%</t>
   </si>
   <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>Menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de comida rápida en 2023 (Tasa respuesta: 99,75%)</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
   </si>
   <si>
     <t>18,68%</t>
   </si>
   <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>2,68%</t>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
   </si>
   <si>
     <t>0,87%</t>
   </si>
   <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>57,88%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,01%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de comida rápida en 2023 (Tasa respuesta: 99,75%)</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
   </si>
   <si>
     <t>2,59%</t>
   </si>
   <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
   </si>
   <si>
     <t>0,14%</t>
   </si>
   <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
   </si>
 </sst>
 </file>
@@ -1996,8 +1774,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50DAB70-B0D9-400D-94AA-60C23C9CACFC}">
-  <dimension ref="A1:Q40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C17B55-99D7-46C2-96EF-22BEB88A1484}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2114,10 +1892,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>28</v>
+        <v>219</v>
       </c>
       <c r="D4" s="7">
-        <v>27849</v>
+        <v>222895</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2129,10 +1907,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>39</v>
+        <v>268</v>
       </c>
       <c r="I4" s="7">
-        <v>41187</v>
+        <v>285484</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2144,10 +1922,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>67</v>
+        <v>487</v>
       </c>
       <c r="N4" s="7">
-        <v>69036</v>
+        <v>508378</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -2165,10 +1943,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>22</v>
+        <v>172</v>
       </c>
       <c r="D5" s="7">
-        <v>24105</v>
+        <v>180699</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -2180,10 +1958,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>31</v>
+        <v>159</v>
       </c>
       <c r="I5" s="7">
-        <v>30045</v>
+        <v>154848</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2195,10 +1973,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>53</v>
+        <v>331</v>
       </c>
       <c r="N5" s="7">
-        <v>54150</v>
+        <v>335547</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -2216,10 +1994,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>32</v>
+        <v>168</v>
       </c>
       <c r="D6" s="7">
-        <v>34033</v>
+        <v>177347</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -2231,10 +2009,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>29</v>
+        <v>168</v>
       </c>
       <c r="I6" s="7">
-        <v>27178</v>
+        <v>163490</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -2246,10 +2024,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>61</v>
+        <v>336</v>
       </c>
       <c r="N6" s="7">
-        <v>61211</v>
+        <v>340837</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -2267,10 +2045,10 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="D7" s="7">
-        <v>24809</v>
+        <v>82956</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -2282,10 +2060,10 @@
         <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="I7" s="7">
-        <v>14118</v>
+        <v>57451</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -2297,10 +2075,10 @@
         <v>46</v>
       </c>
       <c r="M7" s="7">
-        <v>41</v>
+        <v>142</v>
       </c>
       <c r="N7" s="7">
-        <v>38927</v>
+        <v>140407</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -2318,10 +2096,10 @@
         <v>50</v>
       </c>
       <c r="C8" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D8" s="7">
-        <v>3054</v>
+        <v>7040</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>51</v>
@@ -2333,10 +2111,10 @@
         <v>53</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I8" s="7">
-        <v>832</v>
+        <v>4307</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>54</v>
@@ -2348,10 +2126,10 @@
         <v>56</v>
       </c>
       <c r="M8" s="7">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="N8" s="7">
-        <v>3887</v>
+        <v>11347</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>57</v>
@@ -2369,10 +2147,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>111</v>
+        <v>649</v>
       </c>
       <c r="D9" s="7">
-        <v>113851</v>
+        <v>670937</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>60</v>
@@ -2384,10 +2162,10 @@
         <v>60</v>
       </c>
       <c r="H9" s="7">
-        <v>115</v>
+        <v>659</v>
       </c>
       <c r="I9" s="7">
-        <v>113360</v>
+        <v>665580</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>60</v>
@@ -2399,10 +2177,10 @@
         <v>60</v>
       </c>
       <c r="M9" s="7">
-        <v>226</v>
+        <v>1308</v>
       </c>
       <c r="N9" s="7">
-        <v>227211</v>
+        <v>1336517</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>60</v>
@@ -2422,10 +2200,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>191</v>
+        <v>262</v>
       </c>
       <c r="D10" s="7">
-        <v>195045</v>
+        <v>274312</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>62</v>
@@ -2437,10 +2215,10 @@
         <v>64</v>
       </c>
       <c r="H10" s="7">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="I10" s="7">
-        <v>244297</v>
+        <v>337607</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>65</v>
@@ -2452,10 +2230,10 @@
         <v>67</v>
       </c>
       <c r="M10" s="7">
-        <v>420</v>
+        <v>560</v>
       </c>
       <c r="N10" s="7">
-        <v>439342</v>
+        <v>611919</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>68</v>
@@ -2473,10 +2251,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>150</v>
+        <v>281</v>
       </c>
       <c r="D11" s="7">
-        <v>156594</v>
+        <v>305167</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>71</v>
@@ -2488,10 +2266,10 @@
         <v>73</v>
       </c>
       <c r="H11" s="7">
-        <v>128</v>
+        <v>322</v>
       </c>
       <c r="I11" s="7">
-        <v>124803</v>
+        <v>339636</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>74</v>
@@ -2503,10 +2281,10 @@
         <v>76</v>
       </c>
       <c r="M11" s="7">
-        <v>278</v>
+        <v>603</v>
       </c>
       <c r="N11" s="7">
-        <v>281397</v>
+        <v>644804</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>77</v>
@@ -2524,10 +2302,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>136</v>
+        <v>285</v>
       </c>
       <c r="D12" s="7">
-        <v>143314</v>
+        <v>310324</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>80</v>
@@ -2539,10 +2317,10 @@
         <v>82</v>
       </c>
       <c r="H12" s="7">
-        <v>139</v>
+        <v>271</v>
       </c>
       <c r="I12" s="7">
-        <v>136312</v>
+        <v>276214</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>83</v>
@@ -2554,10 +2332,10 @@
         <v>85</v>
       </c>
       <c r="M12" s="7">
-        <v>275</v>
+        <v>556</v>
       </c>
       <c r="N12" s="7">
-        <v>279627</v>
+        <v>586537</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>86</v>
@@ -2575,10 +2353,10 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="D13" s="7">
-        <v>58147</v>
+        <v>109580</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>89</v>
@@ -2590,10 +2368,10 @@
         <v>91</v>
       </c>
       <c r="H13" s="7">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="I13" s="7">
-        <v>43333</v>
+        <v>83061</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>92</v>
@@ -2605,10 +2383,10 @@
         <v>94</v>
       </c>
       <c r="M13" s="7">
-        <v>101</v>
+        <v>181</v>
       </c>
       <c r="N13" s="7">
-        <v>101480</v>
+        <v>192641</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>95</v>
@@ -2626,10 +2404,10 @@
         <v>50</v>
       </c>
       <c r="C14" s="7">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D14" s="7">
-        <v>3985</v>
+        <v>18581</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>98</v>
@@ -2641,10 +2419,10 @@
         <v>100</v>
       </c>
       <c r="H14" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I14" s="7">
-        <v>3475</v>
+        <v>5053</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>101</v>
@@ -2656,10 +2434,10 @@
         <v>103</v>
       </c>
       <c r="M14" s="7">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="N14" s="7">
-        <v>7460</v>
+        <v>23635</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>104</v>
@@ -2677,10 +2455,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>538</v>
+        <v>947</v>
       </c>
       <c r="D15" s="7">
-        <v>557086</v>
+        <v>1017964</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -2692,10 +2470,10 @@
         <v>60</v>
       </c>
       <c r="H15" s="7">
-        <v>544</v>
+        <v>976</v>
       </c>
       <c r="I15" s="7">
-        <v>552220</v>
+        <v>1041571</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -2707,10 +2485,10 @@
         <v>60</v>
       </c>
       <c r="M15" s="7">
-        <v>1082</v>
+        <v>1923</v>
       </c>
       <c r="N15" s="7">
-        <v>1109306</v>
+        <v>2059535</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -2730,10 +2508,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>262</v>
+        <v>169</v>
       </c>
       <c r="D16" s="7">
-        <v>274312</v>
+        <v>181625</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>108</v>
@@ -2742,37 +2520,37 @@
         <v>109</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" s="7">
+        <v>190</v>
+      </c>
+      <c r="I16" s="7">
+        <v>214645</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H16" s="7">
-        <v>298</v>
-      </c>
-      <c r="I16" s="7">
-        <v>337607</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>359</v>
+      </c>
+      <c r="N16" s="7">
+        <v>396270</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="M16" s="7">
-        <v>560</v>
-      </c>
-      <c r="N16" s="7">
-        <v>611919</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2781,49 +2559,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>281</v>
+        <v>195</v>
       </c>
       <c r="D17" s="7">
-        <v>305167</v>
+        <v>214961</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>243</v>
+      </c>
+      <c r="I17" s="7">
+        <v>256894</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H17" s="7">
-        <v>322</v>
-      </c>
-      <c r="I17" s="7">
-        <v>339636</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>438</v>
+      </c>
+      <c r="N17" s="7">
+        <v>471855</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="M17" s="7">
-        <v>603</v>
-      </c>
-      <c r="N17" s="7">
-        <v>644804</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2832,10 +2610,10 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>285</v>
+        <v>237</v>
       </c>
       <c r="D18" s="7">
-        <v>310324</v>
+        <v>260866</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>125</v>
@@ -2847,10 +2625,10 @@
         <v>127</v>
       </c>
       <c r="H18" s="7">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="I18" s="7">
-        <v>276214</v>
+        <v>255288</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>128</v>
@@ -2862,10 +2640,10 @@
         <v>130</v>
       </c>
       <c r="M18" s="7">
-        <v>556</v>
+        <v>485</v>
       </c>
       <c r="N18" s="7">
-        <v>586537</v>
+        <v>516154</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>131</v>
@@ -2883,10 +2661,10 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="D19" s="7">
-        <v>109580</v>
+        <v>92881</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>134</v>
@@ -2898,10 +2676,10 @@
         <v>136</v>
       </c>
       <c r="H19" s="7">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="I19" s="7">
-        <v>83061</v>
+        <v>50848</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>137</v>
@@ -2913,19 +2691,19 @@
         <v>139</v>
       </c>
       <c r="M19" s="7">
-        <v>181</v>
+        <v>135</v>
       </c>
       <c r="N19" s="7">
-        <v>192641</v>
+        <v>143729</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>140</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>90</v>
+        <v>141</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2934,49 +2712,49 @@
         <v>50</v>
       </c>
       <c r="C20" s="7">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D20" s="7">
-        <v>18581</v>
+        <v>6346</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>144</v>
+        <v>98</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
       </c>
       <c r="I20" s="7">
-        <v>5053</v>
+        <v>4744</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>145</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>99</v>
+        <v>146</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M20" s="7">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="N20" s="7">
-        <v>23635</v>
+        <v>11090</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>54</v>
+        <v>149</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2985,10 +2763,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>947</v>
+        <v>694</v>
       </c>
       <c r="D21" s="7">
-        <v>1017964</v>
+        <v>756679</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>60</v>
@@ -3000,10 +2778,10 @@
         <v>60</v>
       </c>
       <c r="H21" s="7">
-        <v>976</v>
+        <v>734</v>
       </c>
       <c r="I21" s="7">
-        <v>1041571</v>
+        <v>782420</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -3015,10 +2793,10 @@
         <v>60</v>
       </c>
       <c r="M21" s="7">
-        <v>1923</v>
+        <v>1428</v>
       </c>
       <c r="N21" s="7">
-        <v>2059535</v>
+        <v>1539099</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -3032,55 +2810,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>169</v>
+        <v>271</v>
       </c>
       <c r="D22" s="7">
-        <v>181625</v>
+        <v>271242</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
-        <v>190</v>
+        <v>323</v>
       </c>
       <c r="I22" s="7">
-        <v>214645</v>
+        <v>371435</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
-        <v>359</v>
+        <v>594</v>
       </c>
       <c r="N22" s="7">
-        <v>396270</v>
+        <v>642677</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>71</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3089,49 +2867,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>195</v>
+        <v>287</v>
       </c>
       <c r="D23" s="7">
-        <v>214961</v>
+        <v>291047</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H23" s="7">
-        <v>243</v>
+        <v>310</v>
       </c>
       <c r="I23" s="7">
-        <v>256894</v>
+        <v>333547</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>14</v>
+        <v>166</v>
       </c>
       <c r="M23" s="7">
-        <v>438</v>
+        <v>597</v>
       </c>
       <c r="N23" s="7">
-        <v>471855</v>
+        <v>624593</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3140,49 +2918,49 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="D24" s="7">
-        <v>260866</v>
+        <v>264344</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>165</v>
+        <v>86</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H24" s="7">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I24" s="7">
-        <v>255288</v>
+        <v>255754</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="M24" s="7">
-        <v>485</v>
+        <v>508</v>
       </c>
       <c r="N24" s="7">
-        <v>516154</v>
+        <v>520099</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3191,49 +2969,49 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D25" s="7">
-        <v>92881</v>
+        <v>86940</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H25" s="7">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I25" s="7">
-        <v>50848</v>
+        <v>59155</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="M25" s="7">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="N25" s="7">
-        <v>143729</v>
+        <v>146095</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3242,49 +3020,49 @@
         <v>50</v>
       </c>
       <c r="C26" s="7">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D26" s="7">
-        <v>6346</v>
+        <v>14612</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>142</v>
+        <v>189</v>
       </c>
       <c r="H26" s="7">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I26" s="7">
-        <v>4744</v>
+        <v>11683</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="M26" s="7">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="N26" s="7">
-        <v>11090</v>
+        <v>26295</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>98</v>
+        <v>193</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3293,10 +3071,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>694</v>
+        <v>923</v>
       </c>
       <c r="D27" s="7">
-        <v>756679</v>
+        <v>928185</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -3308,10 +3086,10 @@
         <v>60</v>
       </c>
       <c r="H27" s="7">
-        <v>734</v>
+        <v>950</v>
       </c>
       <c r="I27" s="7">
-        <v>782420</v>
+        <v>1031574</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -3323,10 +3101,10 @@
         <v>60</v>
       </c>
       <c r="M27" s="7">
-        <v>1428</v>
+        <v>1873</v>
       </c>
       <c r="N27" s="7">
-        <v>1539099</v>
+        <v>1959759</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -3340,55 +3118,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>190</v>
+        <v>3</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>271</v>
+        <v>921</v>
       </c>
       <c r="D28" s="7">
-        <v>271242</v>
+        <v>950074</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="H28" s="7">
-        <v>323</v>
+        <v>1079</v>
       </c>
       <c r="I28" s="7">
-        <v>371435</v>
+        <v>1209170</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="M28" s="7">
-        <v>594</v>
+        <v>2000</v>
       </c>
       <c r="N28" s="7">
-        <v>642677</v>
+        <v>2159245</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3397,49 +3175,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>287</v>
+        <v>935</v>
       </c>
       <c r="D29" s="7">
-        <v>291047</v>
+        <v>991874</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="H29" s="7">
-        <v>310</v>
+        <v>1034</v>
       </c>
       <c r="I29" s="7">
-        <v>333547</v>
+        <v>1084925</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>205</v>
+        <v>164</v>
       </c>
       <c r="M29" s="7">
-        <v>597</v>
+        <v>1969</v>
       </c>
       <c r="N29" s="7">
-        <v>624593</v>
+        <v>2076800</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3448,49 +3226,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>262</v>
+        <v>952</v>
       </c>
       <c r="D30" s="7">
-        <v>264344</v>
+        <v>1012881</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>131</v>
+        <v>212</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="H30" s="7">
-        <v>246</v>
+        <v>933</v>
       </c>
       <c r="I30" s="7">
-        <v>255754</v>
+        <v>950747</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M30" s="7">
-        <v>508</v>
+        <v>1885</v>
       </c>
       <c r="N30" s="7">
-        <v>520099</v>
+        <v>1963628</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>214</v>
+        <v>86</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3499,49 +3277,49 @@
         <v>40</v>
       </c>
       <c r="C31" s="7">
-        <v>89</v>
+        <v>360</v>
       </c>
       <c r="D31" s="7">
-        <v>86940</v>
+        <v>372357</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="H31" s="7">
-        <v>60</v>
+        <v>247</v>
       </c>
       <c r="I31" s="7">
-        <v>59155</v>
+        <v>250515</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M31" s="7">
-        <v>149</v>
+        <v>607</v>
       </c>
       <c r="N31" s="7">
-        <v>146095</v>
+        <v>622872</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3550,49 +3328,49 @@
         <v>50</v>
       </c>
       <c r="C32" s="7">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="D32" s="7">
-        <v>14612</v>
+        <v>46579</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H32" s="7">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="I32" s="7">
-        <v>11683</v>
+        <v>25788</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>229</v>
+        <v>105</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M32" s="7">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="N32" s="7">
-        <v>26295</v>
+        <v>72367</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>232</v>
+        <v>51</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3601,10 +3379,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>923</v>
+        <v>3213</v>
       </c>
       <c r="D33" s="7">
-        <v>928185</v>
+        <v>3373765</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>60</v>
@@ -3616,10 +3394,10 @@
         <v>60</v>
       </c>
       <c r="H33" s="7">
-        <v>950</v>
+        <v>3319</v>
       </c>
       <c r="I33" s="7">
-        <v>1031574</v>
+        <v>3521146</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>60</v>
@@ -3631,10 +3409,10 @@
         <v>60</v>
       </c>
       <c r="M33" s="7">
-        <v>1873</v>
+        <v>6532</v>
       </c>
       <c r="N33" s="7">
-        <v>1959759</v>
+        <v>6894911</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>60</v>
@@ -3647,324 +3425,15 @@
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="7">
-        <v>921</v>
-      </c>
-      <c r="D34" s="7">
-        <v>950074</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="F34" s="7" t="s">
+      <c r="A34" t="s">
         <v>236</v>
       </c>
-      <c r="G34" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="H34" s="7">
-        <v>1079</v>
-      </c>
-      <c r="I34" s="7">
-        <v>1209170</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="M34" s="7">
-        <v>2000</v>
-      </c>
-      <c r="N34" s="7">
-        <v>2159245</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" s="7">
-        <v>935</v>
-      </c>
-      <c r="D35" s="7">
-        <v>991874</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="H35" s="7">
-        <v>1034</v>
-      </c>
-      <c r="I35" s="7">
-        <v>1084925</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="M35" s="7">
-        <v>1969</v>
-      </c>
-      <c r="N35" s="7">
-        <v>2076800</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="7">
-        <v>952</v>
-      </c>
-      <c r="D36" s="7">
-        <v>1012881</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="H36" s="7">
-        <v>933</v>
-      </c>
-      <c r="I36" s="7">
-        <v>950747</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="M36" s="7">
-        <v>1885</v>
-      </c>
-      <c r="N36" s="7">
-        <v>1963628</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37" s="7">
-        <v>360</v>
-      </c>
-      <c r="D37" s="7">
-        <v>372357</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="H37" s="7">
-        <v>247</v>
-      </c>
-      <c r="I37" s="7">
-        <v>250515</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="M37" s="7">
-        <v>607</v>
-      </c>
-      <c r="N37" s="7">
-        <v>622872</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C38" s="7">
-        <v>45</v>
-      </c>
-      <c r="D38" s="7">
-        <v>46579</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="H38" s="7">
-        <v>26</v>
-      </c>
-      <c r="I38" s="7">
-        <v>25788</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="M38" s="7">
-        <v>71</v>
-      </c>
-      <c r="N38" s="7">
-        <v>72367</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="7">
-        <v>3213</v>
-      </c>
-      <c r="D39" s="7">
-        <v>3373766</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H39" s="7">
-        <v>3319</v>
-      </c>
-      <c r="I39" s="7">
-        <v>3521146</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M39" s="7">
-        <v>6532</v>
-      </c>
-      <c r="N39" s="7">
-        <v>6894911</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>277</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A34:A39"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3977,8 +3446,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06B8E198-8D63-4A49-AAB7-270D8109B3B9}">
-  <dimension ref="A1:Q40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16F62B1B-53CF-449D-9999-A0C4E1D43437}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3994,7 +3463,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>278</v>
+        <v>237</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4095,49 +3564,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>47</v>
+        <v>258</v>
       </c>
       <c r="D4" s="7">
-        <v>33629</v>
+        <v>174943</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>279</v>
+        <v>238</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>280</v>
+        <v>239</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>281</v>
+        <v>240</v>
       </c>
       <c r="H4" s="7">
-        <v>112</v>
+        <v>529</v>
       </c>
       <c r="I4" s="7">
-        <v>55990</v>
+        <v>249495</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>282</v>
+        <v>241</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>283</v>
+        <v>242</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="M4" s="7">
-        <v>159</v>
+        <v>787</v>
       </c>
       <c r="N4" s="7">
-        <v>89619</v>
+        <v>424439</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>285</v>
+        <v>244</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>287</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4146,49 +3615,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>44</v>
+        <v>273</v>
       </c>
       <c r="D5" s="7">
-        <v>40167</v>
+        <v>252046</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>288</v>
+        <v>247</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>289</v>
+        <v>248</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>290</v>
+        <v>249</v>
       </c>
       <c r="H5" s="7">
-        <v>98</v>
+        <v>489</v>
       </c>
       <c r="I5" s="7">
-        <v>50922</v>
+        <v>275317</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>291</v>
+        <v>250</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>203</v>
+        <v>251</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>292</v>
+        <v>252</v>
       </c>
       <c r="M5" s="7">
-        <v>142</v>
+        <v>762</v>
       </c>
       <c r="N5" s="7">
-        <v>91089</v>
+        <v>527363</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>293</v>
+        <v>253</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>294</v>
+        <v>254</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4197,49 +3666,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>23</v>
+        <v>169</v>
       </c>
       <c r="D6" s="7">
-        <v>23971</v>
+        <v>177595</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>296</v>
+        <v>256</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>297</v>
+        <v>111</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>298</v>
+        <v>257</v>
       </c>
       <c r="H6" s="7">
-        <v>28</v>
+        <v>185</v>
       </c>
       <c r="I6" s="7">
-        <v>21346</v>
+        <v>125743</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>299</v>
+        <v>258</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>300</v>
+        <v>259</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>301</v>
+        <v>260</v>
       </c>
       <c r="M6" s="7">
-        <v>51</v>
+        <v>354</v>
       </c>
       <c r="N6" s="7">
-        <v>45316</v>
+        <v>303338</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>302</v>
+        <v>261</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>303</v>
+        <v>262</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>304</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4248,49 +3717,49 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D7" s="7">
-        <v>1981</v>
+        <v>23059</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>305</v>
+        <v>264</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>55</v>
+        <v>265</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>306</v>
+        <v>266</v>
       </c>
       <c r="H7" s="7">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="I7" s="7">
-        <v>1991</v>
+        <v>20539</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>308</v>
+        <v>192</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>309</v>
+        <v>268</v>
       </c>
       <c r="M7" s="7">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="N7" s="7">
-        <v>3971</v>
+        <v>43598</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>57</v>
+        <v>269</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>311</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4299,49 +3768,49 @@
         <v>50</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D8" s="7">
-        <v>1326</v>
+        <v>5489</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>55</v>
+        <v>273</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>313</v>
+        <v>274</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I8" s="7">
-        <v>485</v>
+        <v>2037</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>314</v>
+        <v>275</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>55</v>
+        <v>276</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>315</v>
+        <v>277</v>
       </c>
       <c r="M8" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N8" s="7">
-        <v>1811</v>
+        <v>7526</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>316</v>
+        <v>278</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>55</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>317</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4350,10 +3819,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>117</v>
+        <v>727</v>
       </c>
       <c r="D9" s="7">
-        <v>101074</v>
+        <v>633131</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>60</v>
@@ -4365,10 +3834,10 @@
         <v>60</v>
       </c>
       <c r="H9" s="7">
-        <v>243</v>
+        <v>1234</v>
       </c>
       <c r="I9" s="7">
-        <v>130733</v>
+        <v>673131</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>60</v>
@@ -4380,10 +3849,10 @@
         <v>60</v>
       </c>
       <c r="M9" s="7">
-        <v>360</v>
+        <v>1961</v>
       </c>
       <c r="N9" s="7">
-        <v>231806</v>
+        <v>1306263</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>60</v>
@@ -4403,49 +3872,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D10" s="7">
-        <v>147370</v>
+        <v>198035</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>318</v>
+        <v>280</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>319</v>
+        <v>140</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>320</v>
+        <v>281</v>
       </c>
       <c r="H10" s="7">
-        <v>417</v>
+        <v>507</v>
       </c>
       <c r="I10" s="7">
-        <v>210372</v>
+        <v>279181</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>322</v>
+        <v>283</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="M10" s="7">
-        <v>628</v>
+        <v>760</v>
       </c>
       <c r="N10" s="7">
-        <v>357742</v>
+        <v>477216</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>112</v>
+        <v>286</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>325</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4454,49 +3923,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>229</v>
+        <v>408</v>
       </c>
       <c r="D11" s="7">
-        <v>215745</v>
+        <v>400662</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>326</v>
+        <v>288</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>327</v>
+        <v>289</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>328</v>
+        <v>290</v>
       </c>
       <c r="H11" s="7">
-        <v>391</v>
+        <v>642</v>
       </c>
       <c r="I11" s="7">
-        <v>242548</v>
+        <v>415670</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>329</v>
+        <v>291</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>330</v>
+        <v>292</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>331</v>
+        <v>293</v>
       </c>
       <c r="M11" s="7">
-        <v>620</v>
+        <v>1050</v>
       </c>
       <c r="N11" s="7">
-        <v>458294</v>
+        <v>816332</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>332</v>
+        <v>294</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>333</v>
+        <v>295</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>334</v>
+        <v>296</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4505,49 +3974,49 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>146</v>
+        <v>248</v>
       </c>
       <c r="D12" s="7">
-        <v>157552</v>
+        <v>281959</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>335</v>
+        <v>297</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>336</v>
+        <v>134</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>337</v>
+        <v>298</v>
       </c>
       <c r="H12" s="7">
-        <v>157</v>
+        <v>327</v>
       </c>
       <c r="I12" s="7">
-        <v>115383</v>
+        <v>232151</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="M12" s="7">
+        <v>575</v>
+      </c>
+      <c r="N12" s="7">
+        <v>514110</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="K12" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="M12" s="7">
+      <c r="Q12" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="N12" s="7">
-        <v>272935</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4556,49 +4025,49 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="D13" s="7">
-        <v>23253</v>
+        <v>58091</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>341</v>
+        <v>304</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>342</v>
+        <v>305</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>53</v>
+        <v>306</v>
       </c>
       <c r="H13" s="7">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I13" s="7">
-        <v>20224</v>
+        <v>23389</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>343</v>
+        <v>307</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>344</v>
+        <v>308</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>345</v>
+        <v>309</v>
       </c>
       <c r="M13" s="7">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="N13" s="7">
-        <v>43478</v>
+        <v>81480</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>346</v>
+        <v>310</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>347</v>
+        <v>311</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>348</v>
+        <v>312</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4607,49 +4076,49 @@
         <v>50</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D14" s="7">
-        <v>4397</v>
+        <v>253280</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>349</v>
+        <v>313</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>350</v>
+        <v>314</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>351</v>
+        <v>315</v>
       </c>
       <c r="H14" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I14" s="7">
-        <v>1632</v>
+        <v>5935</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>352</v>
+        <v>316</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>55</v>
+        <v>317</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>353</v>
+        <v>318</v>
       </c>
       <c r="M14" s="7">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N14" s="7">
-        <v>6029</v>
+        <v>259215</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>354</v>
+        <v>319</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>355</v>
+        <v>54</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4658,10 +4127,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>610</v>
+        <v>963</v>
       </c>
       <c r="D15" s="7">
-        <v>548318</v>
+        <v>1192027</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -4673,10 +4142,10 @@
         <v>60</v>
       </c>
       <c r="H15" s="7">
-        <v>991</v>
+        <v>1513</v>
       </c>
       <c r="I15" s="7">
-        <v>590159</v>
+        <v>956326</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -4688,10 +4157,10 @@
         <v>60</v>
       </c>
       <c r="M15" s="7">
-        <v>1601</v>
+        <v>2476</v>
       </c>
       <c r="N15" s="7">
-        <v>1138478</v>
+        <v>2148353</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -4711,49 +4180,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>253</v>
+        <v>222</v>
       </c>
       <c r="D16" s="7">
-        <v>211173</v>
+        <v>197161</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>356</v>
+        <v>321</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>357</v>
+        <v>176</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>358</v>
+        <v>322</v>
       </c>
       <c r="H16" s="7">
-        <v>507</v>
+        <v>436</v>
       </c>
       <c r="I16" s="7">
-        <v>305739</v>
+        <v>462703</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>359</v>
+        <v>323</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>360</v>
+        <v>324</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>361</v>
+        <v>325</v>
       </c>
       <c r="M16" s="7">
-        <v>760</v>
+        <v>658</v>
       </c>
       <c r="N16" s="7">
-        <v>516912</v>
+        <v>659864</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>362</v>
+        <v>326</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>363</v>
+        <v>126</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>364</v>
+        <v>327</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4762,49 +4231,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>408</v>
+        <v>271</v>
       </c>
       <c r="D17" s="7">
-        <v>407982</v>
+        <v>281693</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>365</v>
+        <v>328</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>111</v>
+        <v>329</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>366</v>
+        <v>330</v>
       </c>
       <c r="H17" s="7">
-        <v>642</v>
+        <v>392</v>
       </c>
       <c r="I17" s="7">
-        <v>457327</v>
+        <v>261442</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>367</v>
+        <v>331</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>368</v>
+        <v>332</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>369</v>
+        <v>333</v>
       </c>
       <c r="M17" s="7">
-        <v>1050</v>
+        <v>663</v>
       </c>
       <c r="N17" s="7">
-        <v>865309</v>
+        <v>543135</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>370</v>
+        <v>257</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>371</v>
+        <v>334</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>372</v>
+        <v>335</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4813,49 +4282,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>248</v>
+        <v>141</v>
       </c>
       <c r="D18" s="7">
-        <v>295258</v>
+        <v>174318</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>373</v>
+        <v>336</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>374</v>
+        <v>337</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>116</v>
+        <v>338</v>
       </c>
       <c r="H18" s="7">
-        <v>327</v>
+        <v>188</v>
       </c>
       <c r="I18" s="7">
-        <v>260714</v>
+        <v>183758</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>375</v>
+        <v>339</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>376</v>
+        <v>340</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>152</v>
+        <v>341</v>
       </c>
       <c r="M18" s="7">
-        <v>575</v>
+        <v>329</v>
       </c>
       <c r="N18" s="7">
-        <v>555972</v>
+        <v>358076</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>377</v>
+        <v>342</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>378</v>
+        <v>343</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>379</v>
+        <v>344</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4864,49 +4333,49 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D19" s="7">
-        <v>63283</v>
+        <v>48324</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>380</v>
+        <v>345</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>381</v>
+        <v>346</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>382</v>
+        <v>347</v>
       </c>
       <c r="H19" s="7">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I19" s="7">
-        <v>26755</v>
+        <v>24321</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>383</v>
+        <v>348</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>384</v>
+        <v>349</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>385</v>
+        <v>350</v>
       </c>
       <c r="M19" s="7">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="N19" s="7">
-        <v>90039</v>
+        <v>72645</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>386</v>
+        <v>351</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>387</v>
+        <v>352</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>388</v>
+        <v>353</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4915,49 +4384,49 @@
         <v>50</v>
       </c>
       <c r="C20" s="7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D20" s="7">
-        <v>60679</v>
+        <v>3184</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>389</v>
+        <v>52</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>390</v>
+        <v>354</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>391</v>
+        <v>355</v>
       </c>
       <c r="H20" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I20" s="7">
-        <v>7033</v>
+        <v>483</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>104</v>
+        <v>356</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>392</v>
+        <v>358</v>
       </c>
       <c r="M20" s="7">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="N20" s="7">
-        <v>67712</v>
+        <v>3667</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>393</v>
+        <v>359</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>104</v>
+        <v>360</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>394</v>
+        <v>314</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4966,10 +4435,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>963</v>
+        <v>676</v>
       </c>
       <c r="D21" s="7">
-        <v>1038376</v>
+        <v>704680</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>60</v>
@@ -4981,10 +4450,10 @@
         <v>60</v>
       </c>
       <c r="H21" s="7">
-        <v>1513</v>
+        <v>1046</v>
       </c>
       <c r="I21" s="7">
-        <v>1057568</v>
+        <v>932707</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -4996,10 +4465,10 @@
         <v>60</v>
       </c>
       <c r="M21" s="7">
-        <v>2476</v>
+        <v>1722</v>
       </c>
       <c r="N21" s="7">
-        <v>2095944</v>
+        <v>1637388</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -5013,55 +4482,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>222</v>
+        <v>343</v>
       </c>
       <c r="D22" s="7">
-        <v>204375</v>
+        <v>264663</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>395</v>
+        <v>361</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>396</v>
+        <v>362</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>397</v>
+        <v>363</v>
       </c>
       <c r="H22" s="7">
-        <v>436</v>
+        <v>637</v>
       </c>
       <c r="I22" s="7">
-        <v>389659</v>
+        <v>363966</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>398</v>
+        <v>364</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>399</v>
+        <v>365</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>400</v>
+        <v>366</v>
       </c>
       <c r="M22" s="7">
-        <v>658</v>
+        <v>980</v>
       </c>
       <c r="N22" s="7">
-        <v>594035</v>
+        <v>628630</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>401</v>
+        <v>367</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>402</v>
+        <v>368</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>403</v>
+        <v>369</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5070,49 +4539,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>271</v>
+        <v>363</v>
       </c>
       <c r="D23" s="7">
-        <v>291253</v>
+        <v>339569</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>404</v>
+        <v>370</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>405</v>
+        <v>371</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>406</v>
+        <v>372</v>
       </c>
       <c r="H23" s="7">
-        <v>392</v>
+        <v>554</v>
       </c>
       <c r="I23" s="7">
-        <v>280640</v>
+        <v>366001</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>407</v>
+        <v>373</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>408</v>
+        <v>374</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>409</v>
+        <v>375</v>
       </c>
       <c r="M23" s="7">
-        <v>663</v>
+        <v>917</v>
       </c>
       <c r="N23" s="7">
-        <v>571893</v>
+        <v>705571</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>411</v>
+        <v>377</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>412</v>
+        <v>378</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5121,49 +4590,49 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>141</v>
+        <v>225</v>
       </c>
       <c r="D24" s="7">
-        <v>178581</v>
+        <v>235765</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>413</v>
+        <v>379</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>414</v>
+        <v>173</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>415</v>
+        <v>380</v>
       </c>
       <c r="H24" s="7">
-        <v>188</v>
+        <v>306</v>
       </c>
       <c r="I24" s="7">
-        <v>175455</v>
+        <v>310787</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>416</v>
+        <v>381</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>418</v>
+        <v>383</v>
       </c>
       <c r="M24" s="7">
-        <v>329</v>
+        <v>531</v>
       </c>
       <c r="N24" s="7">
-        <v>354037</v>
+        <v>546552</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>419</v>
+        <v>384</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>420</v>
+        <v>385</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>158</v>
+        <v>386</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5172,49 +4641,49 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="D25" s="7">
-        <v>51078</v>
+        <v>70396</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>421</v>
+        <v>387</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>422</v>
+        <v>388</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>423</v>
+        <v>389</v>
       </c>
       <c r="H25" s="7">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="I25" s="7">
-        <v>27414</v>
+        <v>48994</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>424</v>
+        <v>390</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>425</v>
+        <v>391</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>426</v>
+        <v>392</v>
       </c>
       <c r="M25" s="7">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="N25" s="7">
-        <v>78491</v>
+        <v>119390</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>178</v>
+        <v>393</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>427</v>
+        <v>394</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>428</v>
+        <v>395</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5223,49 +4692,49 @@
         <v>50</v>
       </c>
       <c r="C26" s="7">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D26" s="7">
-        <v>3484</v>
+        <v>15439</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>429</v>
+        <v>106</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>430</v>
+        <v>396</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>431</v>
+        <v>397</v>
       </c>
       <c r="H26" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>479</v>
+        <v>620</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>432</v>
+        <v>398</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>433</v>
+        <v>399</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>434</v>
+        <v>317</v>
       </c>
       <c r="M26" s="7">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="N26" s="7">
-        <v>3964</v>
+        <v>16058</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>435</v>
+        <v>400</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>54</v>
+        <v>402</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5274,10 +4743,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>676</v>
+        <v>1005</v>
       </c>
       <c r="D27" s="7">
-        <v>728772</v>
+        <v>925832</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -5289,10 +4758,10 @@
         <v>60</v>
       </c>
       <c r="H27" s="7">
-        <v>1046</v>
+        <v>1557</v>
       </c>
       <c r="I27" s="7">
-        <v>873648</v>
+        <v>1090369</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -5304,10 +4773,10 @@
         <v>60</v>
       </c>
       <c r="M27" s="7">
-        <v>1722</v>
+        <v>2562</v>
       </c>
       <c r="N27" s="7">
-        <v>1602420</v>
+        <v>2016201</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -5321,55 +4790,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>190</v>
+        <v>3</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>343</v>
+        <v>1076</v>
       </c>
       <c r="D28" s="7">
-        <v>277841</v>
+        <v>834803</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>437</v>
+        <v>403</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>438</v>
+        <v>404</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>439</v>
+        <v>405</v>
       </c>
       <c r="H28" s="7">
-        <v>637</v>
+        <v>2109</v>
       </c>
       <c r="I28" s="7">
-        <v>397638</v>
+        <v>1355346</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>440</v>
+        <v>406</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>441</v>
+        <v>74</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>442</v>
+        <v>407</v>
       </c>
       <c r="M28" s="7">
-        <v>980</v>
+        <v>3185</v>
       </c>
       <c r="N28" s="7">
-        <v>675480</v>
+        <v>2190148</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>443</v>
+        <v>207</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>444</v>
+        <v>408</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>445</v>
+        <v>409</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5378,49 +4847,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>363</v>
+        <v>1315</v>
       </c>
       <c r="D29" s="7">
-        <v>345161</v>
+        <v>1273970</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>283</v>
+        <v>410</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>446</v>
+        <v>411</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>447</v>
+        <v>412</v>
       </c>
       <c r="H29" s="7">
-        <v>554</v>
+        <v>2077</v>
       </c>
       <c r="I29" s="7">
-        <v>400500</v>
+        <v>1318430</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>448</v>
+        <v>413</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>449</v>
+        <v>414</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>450</v>
+        <v>415</v>
       </c>
       <c r="M29" s="7">
-        <v>917</v>
+        <v>3392</v>
       </c>
       <c r="N29" s="7">
-        <v>745661</v>
+        <v>2592400</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>451</v>
+        <v>416</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>452</v>
+        <v>417</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>453</v>
+        <v>418</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5429,49 +4898,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>225</v>
+        <v>783</v>
       </c>
       <c r="D30" s="7">
-        <v>247972</v>
+        <v>869637</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>454</v>
+        <v>419</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>455</v>
+        <v>420</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>456</v>
+        <v>421</v>
       </c>
       <c r="H30" s="7">
-        <v>306</v>
+        <v>1006</v>
       </c>
       <c r="I30" s="7">
-        <v>288226</v>
+        <v>852439</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>457</v>
+        <v>422</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>458</v>
+        <v>423</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>459</v>
+        <v>86</v>
       </c>
       <c r="M30" s="7">
-        <v>531</v>
+        <v>1789</v>
       </c>
       <c r="N30" s="7">
-        <v>536198</v>
+        <v>1722076</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>460</v>
+        <v>424</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>461</v>
+        <v>425</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>462</v>
+        <v>426</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5480,49 +4949,49 @@
         <v>40</v>
       </c>
       <c r="C31" s="7">
-        <v>61</v>
+        <v>169</v>
       </c>
       <c r="D31" s="7">
-        <v>76738</v>
+        <v>199870</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>463</v>
+        <v>427</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>464</v>
+        <v>390</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>465</v>
+        <v>428</v>
       </c>
       <c r="H31" s="7">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="I31" s="7">
-        <v>58518</v>
+        <v>117243</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>466</v>
+        <v>429</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>467</v>
+        <v>430</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>468</v>
+        <v>431</v>
       </c>
       <c r="M31" s="7">
-        <v>120</v>
+        <v>313</v>
       </c>
       <c r="N31" s="7">
-        <v>135256</v>
+        <v>317113</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>469</v>
+        <v>432</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>470</v>
+        <v>433</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>471</v>
+        <v>434</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5531,49 +5000,49 @@
         <v>50</v>
       </c>
       <c r="C32" s="7">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D32" s="7">
-        <v>16663</v>
+        <v>277391</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>472</v>
+        <v>435</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>473</v>
+        <v>436</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>474</v>
+        <v>437</v>
       </c>
       <c r="H32" s="7">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="I32" s="7">
-        <v>666</v>
+        <v>9075</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>475</v>
+        <v>55</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>55</v>
+        <v>438</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>476</v>
+        <v>52</v>
       </c>
       <c r="M32" s="7">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="N32" s="7">
-        <v>17329</v>
+        <v>286466</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>275</v>
+        <v>439</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>477</v>
+        <v>440</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5582,10 +5051,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>1005</v>
+        <v>3371</v>
       </c>
       <c r="D33" s="7">
-        <v>964375</v>
+        <v>3455671</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>60</v>
@@ -5597,10 +5066,10 @@
         <v>60</v>
       </c>
       <c r="H33" s="7">
-        <v>1557</v>
+        <v>5350</v>
       </c>
       <c r="I33" s="7">
-        <v>1145549</v>
+        <v>3652534</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>60</v>
@@ -5612,10 +5081,10 @@
         <v>60</v>
       </c>
       <c r="M33" s="7">
-        <v>2562</v>
+        <v>8721</v>
       </c>
       <c r="N33" s="7">
-        <v>2109924</v>
+        <v>7108204</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>60</v>
@@ -5628,324 +5097,15 @@
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="7">
-        <v>1076</v>
-      </c>
-      <c r="D34" s="7">
-        <v>874389</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="H34" s="7">
-        <v>2109</v>
-      </c>
-      <c r="I34" s="7">
-        <v>1359399</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="M34" s="7">
-        <v>3185</v>
-      </c>
-      <c r="N34" s="7">
-        <v>2233788</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" s="7">
-        <v>1315</v>
-      </c>
-      <c r="D35" s="7">
-        <v>1300309</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="H35" s="7">
-        <v>2077</v>
-      </c>
-      <c r="I35" s="7">
-        <v>1431937</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="M35" s="7">
-        <v>3392</v>
-      </c>
-      <c r="N35" s="7">
-        <v>2732246</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="7">
-        <v>783</v>
-      </c>
-      <c r="D36" s="7">
-        <v>903335</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>494</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="H36" s="7">
-        <v>1006</v>
-      </c>
-      <c r="I36" s="7">
-        <v>861123</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="M36" s="7">
-        <v>1789</v>
-      </c>
-      <c r="N36" s="7">
-        <v>1764458</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37" s="7">
-        <v>169</v>
-      </c>
-      <c r="D37" s="7">
-        <v>216333</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="H37" s="7">
-        <v>144</v>
-      </c>
-      <c r="I37" s="7">
-        <v>134902</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="M37" s="7">
-        <v>313</v>
-      </c>
-      <c r="N37" s="7">
-        <v>351235</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C38" s="7">
-        <v>28</v>
-      </c>
-      <c r="D38" s="7">
-        <v>86549</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>510</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="H38" s="7">
-        <v>14</v>
-      </c>
-      <c r="I38" s="7">
-        <v>10296</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="M38" s="7">
-        <v>42</v>
-      </c>
-      <c r="N38" s="7">
-        <v>96845</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="7">
-        <v>3371</v>
-      </c>
-      <c r="D39" s="7">
-        <v>3380914</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H39" s="7">
-        <v>5350</v>
-      </c>
-      <c r="I39" s="7">
-        <v>3797657</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M39" s="7">
-        <v>8721</v>
-      </c>
-      <c r="N39" s="7">
-        <v>7178572</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>277</v>
+      <c r="A34" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A34:A39"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
